--- a/KabElectroSolutionsUI/src/assets/Claims.xlsx
+++ b/KabElectroSolutionsUI/src/assets/Claims.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>CustomerName</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>ItemCategory</t>
   </si>
   <si>
     <t>InvoiceDate</t>
@@ -1015,10 +1018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1031,12 +1034,12 @@
     <col min="6" max="6" width="11.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="18.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="14.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="16.4285714285714" customWidth="1"/>
+    <col min="9" max="10" width="13.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="14.2857142857143" customWidth="1"/>
+    <col min="14" max="14" width="16.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,69 +1082,44 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="3:9">
+    <row r="2" spans="3:10">
       <c r="C2" s="2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
       <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:10">
       <c r="C3" s="2"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
       <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" spans="3:10">
       <c r="C4" s="2"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" spans="3:10">
       <c r="C5" s="2"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="3:9">
+    <row r="6" spans="3:10">
       <c r="C6" s="2"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
       <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="3:10">
       <c r="C7" s="2"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
       <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="3:9">
+    <row r="8" spans="3:10">
       <c r="C8" s="2"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
       <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
